--- a/big-data/big-data-capstone/project/data/beer_n_Amazing First Love.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Amazing First Love.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KyotoLefty(14,482)
+          <t>KyotoLefty(14,484)
 🇯🇵Kyoto, Japan
 3.4January 16, 2020
 Tap in a bar in Seoul. Pretty, deep honey orange color. Nose is orange juice, papaya. Sweet, juicy, pithy, zest, with orange, mango and a slightly weird edge. Thick and full. Decent.
@@ -866,7 +866,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tide(8,851)
+          <t>Tide(8,855)
 🇫🇮Helsinki, Finland
 3.5October 20, 2017
 Draught at Amazing Brewing Seoul. Hazy yellow color, white head. Bitter taste with citrus, floral hops, mango, resin and grass. Bitter finish with citrus, floral hops, mango, resin, grass…
